--- a/Personal finance reading/ETF study/ETF Free trade on Ameritrade.xlsx
+++ b/Personal finance reading/ETF study/ETF Free trade on Ameritrade.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="2" r:id="rId1"/>
     <sheet name="YTD Sorting" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Vanguard ETF" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="62">
   <si>
     <t>Symbol</t>
   </si>
@@ -542,7 +542,388 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="39">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDEEBF5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1311,8 +1692,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D8:K33" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D8:K33" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="D8:K33"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Symbol" dataDxfId="33" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" name="ETF Name" dataDxfId="32" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Asset Class" dataDxfId="31"/>
+    <tableColumn id="4" name="Total Assets ($MM)" dataDxfId="30"/>
+    <tableColumn id="5" name="YTD" dataDxfId="29"/>
+    <tableColumn id="6" name="Avg Volume" dataDxfId="28"/>
+    <tableColumn id="7" name="Previous Closing Price" dataDxfId="27"/>
+    <tableColumn id="8" name="1-Day Change" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="D8:K33" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="D8:K33"/>
+  <sortState ref="D9:K33">
+    <sortCondition descending="1" ref="H8:H33"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Symbol" dataDxfId="20" dataCellStyle="Hyperlink"/>
     <tableColumn id="2" name="ETF Name" dataDxfId="19" dataCellStyle="Hyperlink"/>
@@ -1327,21 +1728,27 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="D8:K33" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="D8:K33"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="D8:K33" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+  <autoFilter ref="D8:K33">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*vanguard*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="D9:K33">
     <sortCondition descending="1" ref="H8:H33"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Symbol" dataDxfId="7" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" name="ETF Name" dataDxfId="6" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Asset Class" dataDxfId="5"/>
-    <tableColumn id="4" name="Total Assets ($MM)" dataDxfId="4"/>
-    <tableColumn id="5" name="YTD" dataDxfId="3"/>
-    <tableColumn id="6" name="Avg Volume" dataDxfId="2"/>
-    <tableColumn id="7" name="Previous Closing Price" dataDxfId="1"/>
-    <tableColumn id="8" name="1-Day Change" dataDxfId="0"/>
+    <tableColumn id="1" name="Symbol" dataDxfId="12" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" name="ETF Name" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Asset Class" dataDxfId="10"/>
+    <tableColumn id="4" name="Total Assets ($MM)" dataDxfId="9"/>
+    <tableColumn id="5" name="YTD" dataDxfId="8"/>
+    <tableColumn id="6" name="Avg Volume" dataDxfId="7"/>
+    <tableColumn id="7" name="Previous Closing Price" dataDxfId="6"/>
+    <tableColumn id="8" name="1-Day Change" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2446,7 +2853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -3271,14 +3678,827 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="D2:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12">
+      <c r="I2" s="41">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12" ht="26.25">
+      <c r="D3" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" ht="45.75" thickBot="1">
+      <c r="D8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10844.49</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.2462</v>
+      </c>
+      <c r="I9" s="15">
+        <v>534648</v>
+      </c>
+      <c r="J9" s="16">
+        <v>141.46</v>
+      </c>
+      <c r="K9" s="20">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8974.69</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.2374</v>
+      </c>
+      <c r="I10" s="15">
+        <v>164705</v>
+      </c>
+      <c r="J10" s="16">
+        <v>186.09</v>
+      </c>
+      <c r="K10" s="20">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6163.8</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.23530000000000001</v>
+      </c>
+      <c r="I11" s="10">
+        <v>140442</v>
+      </c>
+      <c r="J11" s="11">
+        <v>147.61000000000001</v>
+      </c>
+      <c r="K11" s="19">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8">
+        <v>9350.3799999999992</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="I12" s="10">
+        <v>590359</v>
+      </c>
+      <c r="J12" s="11">
+        <v>202.98</v>
+      </c>
+      <c r="K12" s="19">
+        <v>1.11E-2</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8">
+        <v>6955.78</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="I13" s="10">
+        <v>404905</v>
+      </c>
+      <c r="J13" s="11">
+        <v>119.52</v>
+      </c>
+      <c r="K13" s="19">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="8">
+        <v>9552.24</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="I14" s="15">
+        <v>368534</v>
+      </c>
+      <c r="J14" s="16">
+        <v>172.99</v>
+      </c>
+      <c r="K14" s="20">
+        <v>5.3E-3</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="8">
+        <v>9259.24</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="I15" s="15">
+        <v>351169</v>
+      </c>
+      <c r="J15" s="16">
+        <v>111.59</v>
+      </c>
+      <c r="K15" s="20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="8">
+        <v>13588.72</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.1764</v>
+      </c>
+      <c r="I16" s="15">
+        <v>279066</v>
+      </c>
+      <c r="J16" s="16">
+        <v>133.57</v>
+      </c>
+      <c r="K16" s="20">
+        <v>1.06E-2</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="8">
+        <v>11009.19</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.1754</v>
+      </c>
+      <c r="I17" s="10">
+        <v>591483</v>
+      </c>
+      <c r="J17" s="11">
+        <v>89.34</v>
+      </c>
+      <c r="K17" s="19">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="8">
+        <v>6394.23</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="I18" s="10">
+        <v>196270</v>
+      </c>
+      <c r="J18" s="11">
+        <v>153.63999999999999</v>
+      </c>
+      <c r="K18" s="19">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="8">
+        <v>15617.26</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="I19" s="10">
+        <v>779862</v>
+      </c>
+      <c r="J19" s="11">
+        <v>116.88</v>
+      </c>
+      <c r="K19" s="19">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="8">
+        <v>10748.36</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="I20" s="10">
+        <v>2928964</v>
+      </c>
+      <c r="J20" s="11">
+        <v>74.37</v>
+      </c>
+      <c r="K20" s="19">
+        <v>3.8E-3</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="8">
+        <v>9130.2099999999991</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.1585</v>
+      </c>
+      <c r="I21" s="10">
+        <v>801903</v>
+      </c>
+      <c r="J21" s="11">
+        <v>124.06</v>
+      </c>
+      <c r="K21" s="19">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="8">
+        <v>12788.53</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2610625</v>
+      </c>
+      <c r="J22" s="11">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="K22" s="19">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="8">
+        <v>13816.09</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.1426</v>
+      </c>
+      <c r="I23" s="10">
+        <v>3516800</v>
+      </c>
+      <c r="J23" s="11">
+        <v>55.24</v>
+      </c>
+      <c r="K23" s="19">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8">
+        <v>6288.56</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="I24" s="15">
+        <v>28774536</v>
+      </c>
+      <c r="J24" s="16">
+        <v>44.6</v>
+      </c>
+      <c r="K24" s="20">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8">
+        <v>9643.77</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1031286</v>
+      </c>
+      <c r="J25" s="11">
+        <v>59.11</v>
+      </c>
+      <c r="K25" s="19">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="8">
+        <v>9784.9599999999991</v>
+      </c>
+      <c r="H26" s="14">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="I26" s="15">
+        <v>13668484</v>
+      </c>
+      <c r="J26" s="16">
+        <v>36.25</v>
+      </c>
+      <c r="K26" s="20">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="8">
+        <v>14250.59</v>
+      </c>
+      <c r="H27" s="14">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="I27" s="15">
+        <v>8074709</v>
+      </c>
+      <c r="J27" s="16">
+        <v>55.4</v>
+      </c>
+      <c r="K27" s="20">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="8">
+        <v>8639.64</v>
+      </c>
+      <c r="H28" s="14">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="I28" s="15">
+        <v>31630064</v>
+      </c>
+      <c r="J28" s="16">
+        <v>41.25</v>
+      </c>
+      <c r="K28" s="20">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="4:12" ht="15.75" thickBot="1">
+      <c r="D29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="8">
+        <v>11608.12</v>
+      </c>
+      <c r="H29" s="14">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="I29" s="15">
+        <v>682678</v>
+      </c>
+      <c r="J29" s="16">
+        <v>83.82</v>
+      </c>
+      <c r="K29" s="20">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="8">
+        <v>12567.19</v>
+      </c>
+      <c r="H30" s="9">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="I30" s="10">
+        <v>802955</v>
+      </c>
+      <c r="J30" s="11">
+        <v>111.49</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1.4E-3</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="8">
+        <v>12585.4</v>
+      </c>
+      <c r="H31" s="14">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="I31" s="15">
+        <v>7886922</v>
+      </c>
+      <c r="J31" s="16">
+        <v>123.81</v>
+      </c>
+      <c r="K31" s="20">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="4:12">
+      <c r="D32" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="8">
+        <v>8685.76</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="I32" s="10">
+        <v>787667</v>
+      </c>
+      <c r="J32" s="11">
+        <v>52.17</v>
+      </c>
+      <c r="K32" s="19">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="4:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="D33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="28">
+        <v>6816.2</v>
+      </c>
+      <c r="H33" s="36">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="I33" s="37">
+        <v>854370</v>
+      </c>
+      <c r="J33" s="38">
+        <v>122.86</v>
+      </c>
+      <c r="K33" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H9:H33">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" display="https://etfdb.com/etf/IVE/"/>
+    <hyperlink ref="E19" r:id="rId2" display="https://etfdb.com/etf/IVE/"/>
+    <hyperlink ref="L9" r:id="rId3" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D27" r:id="rId4" display="https://etfdb.com/etf/EWJ/"/>
+    <hyperlink ref="E27" r:id="rId5" display="https://etfdb.com/etf/EWJ/"/>
+    <hyperlink ref="L10" r:id="rId6" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D23" r:id="rId7" display="https://etfdb.com/etf/VGK/"/>
+    <hyperlink ref="E23" r:id="rId8" display="https://etfdb.com/etf/VGK/"/>
+    <hyperlink ref="L11" r:id="rId9" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D16" r:id="rId10" display="https://etfdb.com/etf/VBR/"/>
+    <hyperlink ref="E16" r:id="rId11" display="https://etfdb.com/etf/VBR/"/>
+    <hyperlink ref="L12" r:id="rId12" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D22" r:id="rId13" display="https://etfdb.com/etf/VT/"/>
+    <hyperlink ref="E22" r:id="rId14" display="https://etfdb.com/etf/VT/"/>
+    <hyperlink ref="L13" r:id="rId15" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D31" r:id="rId16" display="https://etfdb.com/etf/TLT/"/>
+    <hyperlink ref="E31" r:id="rId17" display="https://etfdb.com/etf/TLT/"/>
+    <hyperlink ref="L14" r:id="rId18" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D30" r:id="rId19" display="https://etfdb.com/etf/MUB/"/>
+    <hyperlink ref="E30" r:id="rId20" display="https://etfdb.com/etf/MUB/"/>
+    <hyperlink ref="L15" r:id="rId21" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D29" r:id="rId22" display="https://etfdb.com/etf/BIV/"/>
+    <hyperlink ref="E29" r:id="rId23" display="https://etfdb.com/etf/BIV/"/>
+    <hyperlink ref="L16" r:id="rId24" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D17" r:id="rId25" display="https://etfdb.com/etf/IWS/"/>
+    <hyperlink ref="E17" r:id="rId26" display="https://etfdb.com/etf/IWS/"/>
+    <hyperlink ref="L17" r:id="rId27" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D9" r:id="rId28" display="https://etfdb.com/etf/IWP/"/>
+    <hyperlink ref="E9" r:id="rId29" display="https://etfdb.com/etf/IWP/"/>
+    <hyperlink ref="L18" r:id="rId30" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D20" r:id="rId31" display="https://etfdb.com/etf/ACWI/"/>
+    <hyperlink ref="E20" r:id="rId32" display="https://etfdb.com/etf/ACWI/"/>
+    <hyperlink ref="L19" r:id="rId33" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D26" r:id="rId34" display="https://etfdb.com/etf/JNK/"/>
+    <hyperlink ref="E26" r:id="rId35" display="https://etfdb.com/etf/JNK/"/>
+    <hyperlink ref="L20" r:id="rId36" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D25" r:id="rId37" display="https://etfdb.com/etf/SCZ/"/>
+    <hyperlink ref="E25" r:id="rId38" display="https://etfdb.com/etf/SCZ/"/>
+    <hyperlink ref="L21" r:id="rId39" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D14" r:id="rId40" display="https://etfdb.com/etf/IWV/"/>
+    <hyperlink ref="E14" r:id="rId41" display="https://etfdb.com/etf/IWV/"/>
+    <hyperlink ref="L22" r:id="rId42" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D12" r:id="rId43" display="https://etfdb.com/etf/IWO/"/>
+    <hyperlink ref="E12" r:id="rId44" display="https://etfdb.com/etf/IWO/"/>
+    <hyperlink ref="L23" r:id="rId45" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D15" r:id="rId46" display="https://etfdb.com/etf/VOE/"/>
+    <hyperlink ref="E15" r:id="rId47" display="https://etfdb.com/etf/VOE/"/>
+    <hyperlink ref="L24" r:id="rId48" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D21" r:id="rId49" display="https://etfdb.com/etf/IWN/"/>
+    <hyperlink ref="E21" r:id="rId50" display="https://etfdb.com/etf/IWN/"/>
+    <hyperlink ref="L25" r:id="rId51" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D10" r:id="rId52" display="https://etfdb.com/etf/VBK/"/>
+    <hyperlink ref="E10" r:id="rId53" display="https://etfdb.com/etf/VBK/"/>
+    <hyperlink ref="L26" r:id="rId54" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D32" r:id="rId55" display="https://etfdb.com/etf/VMBS/"/>
+    <hyperlink ref="E32" r:id="rId56" display="https://etfdb.com/etf/VMBS/"/>
+    <hyperlink ref="L27" r:id="rId57" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D28" r:id="rId58" display="https://etfdb.com/etf/EWZ/"/>
+    <hyperlink ref="E28" r:id="rId59" display="https://etfdb.com/etf/EWZ/"/>
+    <hyperlink ref="L28" r:id="rId60" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D13" r:id="rId61" display="https://etfdb.com/etf/VXF/"/>
+    <hyperlink ref="E13" r:id="rId62" display="https://etfdb.com/etf/VXF/"/>
+    <hyperlink ref="L29" r:id="rId63" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D33" r:id="rId64" display="https://etfdb.com/etf/IEI/"/>
+    <hyperlink ref="E33" r:id="rId65" display="https://etfdb.com/etf/IEI/"/>
+    <hyperlink ref="L30" r:id="rId66" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D18" r:id="rId67" display="https://etfdb.com/etf/IJS/"/>
+    <hyperlink ref="E18" r:id="rId68" display="https://etfdb.com/etf/IJS/"/>
+    <hyperlink ref="L31" r:id="rId69" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D24" r:id="rId70" display="https://etfdb.com/etf/FXI/"/>
+    <hyperlink ref="E24" r:id="rId71" display="https://etfdb.com/etf/FXI/"/>
+    <hyperlink ref="L32" r:id="rId72" display="https://etfdb.com/members/join/"/>
+    <hyperlink ref="D11" r:id="rId73" display="https://etfdb.com/etf/VOT/"/>
+    <hyperlink ref="E11" r:id="rId74" display="https://etfdb.com/etf/VOT/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId75"/>
+  </tableParts>
 </worksheet>
 </file>